--- a/voshtani/taxonomy 1500- Mechaic-voshtani.xlsx
+++ b/voshtani/taxonomy 1500- Mechaic-voshtani.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\H.haddadniya\RCM\مهندس وشتانی\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\heidar\Documents\GitHub\RCM_data_concatinating\voshtani\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F5F666A-1270-40CF-BD22-E20C35D8DD96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="12435" tabRatio="917" firstSheet="13" activeTab="30"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="917" firstSheet="19" activeTab="30" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1520WP01" sheetId="5" r:id="rId1"/>
@@ -3008,12 +3009,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3033,7 +3034,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3945,7 +3946,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
@@ -3954,20 +3955,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.375" customWidth="1"/>
-    <col min="2" max="2" width="21.25" customWidth="1"/>
-    <col min="3" max="3" width="24.375" customWidth="1"/>
-    <col min="4" max="4" width="21.75" customWidth="1"/>
-    <col min="5" max="5" width="22.875" customWidth="1"/>
-    <col min="6" max="6" width="28.125" customWidth="1"/>
-    <col min="7" max="7" width="25.75" customWidth="1"/>
-    <col min="8" max="8" width="35.375" customWidth="1"/>
-    <col min="9" max="9" width="22.25" customWidth="1"/>
-    <col min="10" max="10" width="16.125" customWidth="1"/>
-    <col min="11" max="11" width="23.75" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" customWidth="1"/>
+    <col min="6" max="6" width="28.140625" customWidth="1"/>
+    <col min="7" max="7" width="25.7109375" customWidth="1"/>
+    <col min="8" max="8" width="35.42578125" customWidth="1"/>
+    <col min="9" max="9" width="22.28515625" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" customWidth="1"/>
+    <col min="11" max="11" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="19.5">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -4305,7 +4306,7 @@
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
     </row>
-    <row r="15" spans="1:11" ht="18.75">
+    <row r="15" spans="1:11" ht="18">
       <c r="A15" s="4"/>
       <c r="B15" s="8"/>
       <c r="C15" s="11" t="s">
@@ -4396,7 +4397,7 @@
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
     </row>
-    <row r="19" spans="1:11" ht="18.75">
+    <row r="19" spans="1:11" ht="18">
       <c r="A19" s="4"/>
       <c r="B19" s="8"/>
       <c r="C19" s="6" t="s">
@@ -4419,7 +4420,7 @@
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
     </row>
-    <row r="20" spans="1:11" ht="18.75">
+    <row r="20" spans="1:11" ht="18">
       <c r="A20" s="4"/>
       <c r="B20" s="9"/>
       <c r="C20" s="10" t="s">
@@ -4441,7 +4442,7 @@
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
     </row>
-    <row r="21" spans="1:11" ht="18.75">
+    <row r="21" spans="1:11" ht="18">
       <c r="A21" s="4"/>
       <c r="B21" s="9"/>
       <c r="C21" s="10" t="s">
@@ -4464,7 +4465,7 @@
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
     </row>
-    <row r="22" spans="1:11" ht="18.75">
+    <row r="22" spans="1:11" ht="18">
       <c r="A22" s="4"/>
       <c r="B22" s="8"/>
       <c r="C22" s="10" t="s">
@@ -4726,7 +4727,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
@@ -4735,19 +4736,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="18.875" customWidth="1"/>
+    <col min="1" max="2" width="18.85546875" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
-    <col min="4" max="4" width="9.125" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="19.75" customWidth="1"/>
-    <col min="8" max="8" width="19.25" customWidth="1"/>
-    <col min="9" max="9" width="15.75" customWidth="1"/>
-    <col min="10" max="10" width="15.875" customWidth="1"/>
-    <col min="11" max="11" width="16.375" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" customWidth="1"/>
+    <col min="8" max="8" width="19.28515625" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" customWidth="1"/>
+    <col min="11" max="11" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="19.5">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -5085,7 +5086,7 @@
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
     </row>
-    <row r="15" spans="1:11" ht="18.75">
+    <row r="15" spans="1:11" ht="18">
       <c r="A15" s="4"/>
       <c r="B15" s="8"/>
       <c r="C15" s="11" t="s">
@@ -5176,7 +5177,7 @@
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
     </row>
-    <row r="19" spans="1:11" ht="18.75">
+    <row r="19" spans="1:11" ht="18">
       <c r="A19" s="4"/>
       <c r="B19" s="8"/>
       <c r="C19" s="6" t="s">
@@ -5199,7 +5200,7 @@
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
     </row>
-    <row r="20" spans="1:11" ht="18.75">
+    <row r="20" spans="1:11" ht="18">
       <c r="A20" s="4"/>
       <c r="B20" s="9"/>
       <c r="C20" s="10" t="s">
@@ -5221,7 +5222,7 @@
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
     </row>
-    <row r="21" spans="1:11" ht="18.75">
+    <row r="21" spans="1:11" ht="18">
       <c r="A21" s="4"/>
       <c r="B21" s="9"/>
       <c r="C21" s="10" t="s">
@@ -5244,7 +5245,7 @@
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
     </row>
-    <row r="22" spans="1:11" ht="18.75">
+    <row r="22" spans="1:11" ht="18">
       <c r="A22" s="4"/>
       <c r="B22" s="8"/>
       <c r="C22" s="10" t="s">
@@ -5503,29 +5504,29 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+    <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
       <selection activeCell="A32" sqref="A32:F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.625" customWidth="1"/>
-    <col min="2" max="2" width="17.125" customWidth="1"/>
-    <col min="3" max="3" width="27.75" customWidth="1"/>
-    <col min="4" max="4" width="16.125" customWidth="1"/>
-    <col min="5" max="5" width="14.25" customWidth="1"/>
-    <col min="6" max="6" width="12.75" customWidth="1"/>
-    <col min="7" max="7" width="20.625" customWidth="1"/>
-    <col min="8" max="8" width="19.125" customWidth="1"/>
-    <col min="9" max="9" width="16.375" customWidth="1"/>
-    <col min="10" max="10" width="14.25" customWidth="1"/>
-    <col min="11" max="11" width="16.25" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="20.5703125" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="19.5">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -5863,7 +5864,7 @@
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
     </row>
-    <row r="15" spans="1:11" ht="18.75">
+    <row r="15" spans="1:11" ht="18">
       <c r="A15" s="4"/>
       <c r="B15" s="8"/>
       <c r="C15" s="11" t="s">
@@ -5954,7 +5955,7 @@
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
     </row>
-    <row r="19" spans="1:11" ht="18.75">
+    <row r="19" spans="1:11" ht="18">
       <c r="A19" s="4"/>
       <c r="B19" s="8"/>
       <c r="C19" s="6" t="s">
@@ -5977,7 +5978,7 @@
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
     </row>
-    <row r="20" spans="1:11" ht="18.75">
+    <row r="20" spans="1:11" ht="18">
       <c r="A20" s="4"/>
       <c r="B20" s="9"/>
       <c r="C20" s="10" t="s">
@@ -5999,7 +6000,7 @@
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
     </row>
-    <row r="21" spans="1:11" ht="18.75">
+    <row r="21" spans="1:11" ht="18">
       <c r="A21" s="4"/>
       <c r="B21" s="9"/>
       <c r="C21" s="10" t="s">
@@ -6022,7 +6023,7 @@
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
     </row>
-    <row r="22" spans="1:11" ht="18.75">
+    <row r="22" spans="1:11" ht="18">
       <c r="A22" s="4"/>
       <c r="B22" s="8"/>
       <c r="C22" s="10" t="s">
@@ -6279,7 +6280,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
@@ -6289,19 +6290,19 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="20.25" customWidth="1"/>
-    <col min="3" max="3" width="28.875" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="11.375" customWidth="1"/>
-    <col min="6" max="6" width="12.75" customWidth="1"/>
-    <col min="7" max="7" width="20.75" customWidth="1"/>
-    <col min="8" max="8" width="18.875" customWidth="1"/>
-    <col min="9" max="9" width="18.25" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" customWidth="1"/>
     <col min="10" max="10" width="17" customWidth="1"/>
-    <col min="11" max="11" width="16.875" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="19.5">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -6639,7 +6640,7 @@
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
     </row>
-    <row r="15" spans="1:11" ht="18.75">
+    <row r="15" spans="1:11" ht="18">
       <c r="A15" s="4"/>
       <c r="B15" s="8"/>
       <c r="C15" s="11" t="s">
@@ -6730,7 +6731,7 @@
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
     </row>
-    <row r="19" spans="1:11" ht="18.75">
+    <row r="19" spans="1:11" ht="18">
       <c r="A19" s="4"/>
       <c r="B19" s="8"/>
       <c r="C19" s="6" t="s">
@@ -6753,7 +6754,7 @@
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
     </row>
-    <row r="20" spans="1:11" ht="18.75">
+    <row r="20" spans="1:11" ht="18">
       <c r="A20" s="4"/>
       <c r="B20" s="9"/>
       <c r="C20" s="10" t="s">
@@ -6775,7 +6776,7 @@
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
     </row>
-    <row r="21" spans="1:11" ht="18.75">
+    <row r="21" spans="1:11" ht="18">
       <c r="A21" s="4"/>
       <c r="B21" s="9"/>
       <c r="C21" s="10" t="s">
@@ -6798,7 +6799,7 @@
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
     </row>
-    <row r="22" spans="1:11" ht="18.75">
+    <row r="22" spans="1:11" ht="18">
       <c r="A22" s="4"/>
       <c r="B22" s="8"/>
       <c r="C22" s="10" t="s">
@@ -7057,7 +7058,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
@@ -7066,19 +7067,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.625" customWidth="1"/>
-    <col min="2" max="2" width="18.375" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
     <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="6" max="6" width="15.625" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" customWidth="1"/>
     <col min="7" max="7" width="24" customWidth="1"/>
-    <col min="8" max="8" width="26.25" customWidth="1"/>
+    <col min="8" max="8" width="26.28515625" customWidth="1"/>
     <col min="9" max="9" width="22" customWidth="1"/>
     <col min="10" max="10" width="21" customWidth="1"/>
-    <col min="11" max="11" width="19.625" customWidth="1"/>
+    <col min="11" max="11" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="19.5">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -7416,7 +7417,7 @@
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
     </row>
-    <row r="15" spans="1:11" ht="18.75">
+    <row r="15" spans="1:11" ht="18">
       <c r="A15" s="4"/>
       <c r="B15" s="8"/>
       <c r="C15" s="11" t="s">
@@ -7507,7 +7508,7 @@
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
     </row>
-    <row r="19" spans="1:11" ht="18.75">
+    <row r="19" spans="1:11" ht="18">
       <c r="A19" s="4"/>
       <c r="B19" s="8"/>
       <c r="C19" s="6" t="s">
@@ -7530,7 +7531,7 @@
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
     </row>
-    <row r="20" spans="1:11" ht="18.75">
+    <row r="20" spans="1:11" ht="18">
       <c r="A20" s="4"/>
       <c r="B20" s="9"/>
       <c r="C20" s="10" t="s">
@@ -7552,7 +7553,7 @@
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
     </row>
-    <row r="21" spans="1:11" ht="18.75">
+    <row r="21" spans="1:11" ht="18">
       <c r="A21" s="4"/>
       <c r="B21" s="9"/>
       <c r="C21" s="10" t="s">
@@ -7575,7 +7576,7 @@
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
     </row>
-    <row r="22" spans="1:11" ht="18.75">
+    <row r="22" spans="1:11" ht="18">
       <c r="A22" s="4"/>
       <c r="B22" s="8"/>
       <c r="C22" s="10" t="s">
@@ -7834,7 +7835,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
@@ -7843,20 +7844,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.125" customWidth="1"/>
-    <col min="2" max="2" width="18.125" customWidth="1"/>
-    <col min="3" max="3" width="26.125" customWidth="1"/>
-    <col min="4" max="4" width="13.375" customWidth="1"/>
-    <col min="5" max="5" width="13.25" customWidth="1"/>
-    <col min="6" max="6" width="13.875" customWidth="1"/>
-    <col min="7" max="7" width="18.125" customWidth="1"/>
-    <col min="8" max="8" width="18.25" customWidth="1"/>
-    <col min="9" max="9" width="15.875" customWidth="1"/>
-    <col min="10" max="10" width="18.75" customWidth="1"/>
-    <col min="11" max="11" width="19.125" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" customWidth="1"/>
+    <col min="10" max="10" width="18.7109375" customWidth="1"/>
+    <col min="11" max="11" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="19.5">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -8194,7 +8195,7 @@
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
     </row>
-    <row r="15" spans="1:11" ht="18.75">
+    <row r="15" spans="1:11" ht="18">
       <c r="A15" s="4"/>
       <c r="B15" s="8"/>
       <c r="C15" s="11" t="s">
@@ -8285,7 +8286,7 @@
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
     </row>
-    <row r="19" spans="1:11" ht="18.75">
+    <row r="19" spans="1:11" ht="18">
       <c r="A19" s="4"/>
       <c r="B19" s="8"/>
       <c r="C19" s="6" t="s">
@@ -8308,7 +8309,7 @@
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
     </row>
-    <row r="20" spans="1:11" ht="18.75">
+    <row r="20" spans="1:11" ht="18">
       <c r="A20" s="4"/>
       <c r="B20" s="9"/>
       <c r="C20" s="10" t="s">
@@ -8330,7 +8331,7 @@
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
     </row>
-    <row r="21" spans="1:11" ht="18.75">
+    <row r="21" spans="1:11" ht="18">
       <c r="A21" s="4"/>
       <c r="B21" s="9"/>
       <c r="C21" s="10" t="s">
@@ -8353,7 +8354,7 @@
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
     </row>
-    <row r="22" spans="1:11" ht="18.75">
+    <row r="22" spans="1:11" ht="18">
       <c r="A22" s="4"/>
       <c r="B22" s="8"/>
       <c r="C22" s="10" t="s">
@@ -8612,7 +8613,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
@@ -8621,20 +8622,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.25" customWidth="1"/>
-    <col min="2" max="2" width="18.875" customWidth="1"/>
-    <col min="3" max="3" width="26.25" customWidth="1"/>
-    <col min="4" max="4" width="12.625" customWidth="1"/>
-    <col min="5" max="5" width="11.375" customWidth="1"/>
-    <col min="6" max="6" width="15.625" customWidth="1"/>
-    <col min="7" max="7" width="19.75" customWidth="1"/>
-    <col min="8" max="8" width="18.25" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+    <col min="3" max="3" width="26.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="16.75" customWidth="1"/>
-    <col min="11" max="11" width="16.375" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" customWidth="1"/>
+    <col min="11" max="11" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="19.5">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -8972,7 +8973,7 @@
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
     </row>
-    <row r="15" spans="1:11" ht="18.75">
+    <row r="15" spans="1:11" ht="18">
       <c r="A15" s="4"/>
       <c r="B15" s="8"/>
       <c r="C15" s="11" t="s">
@@ -9063,7 +9064,7 @@
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
     </row>
-    <row r="19" spans="1:11" ht="18.75">
+    <row r="19" spans="1:11" ht="18">
       <c r="A19" s="4"/>
       <c r="B19" s="8"/>
       <c r="C19" s="6" t="s">
@@ -9086,7 +9087,7 @@
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
     </row>
-    <row r="20" spans="1:11" ht="18.75">
+    <row r="20" spans="1:11" ht="18">
       <c r="A20" s="4"/>
       <c r="B20" s="9"/>
       <c r="C20" s="10" t="s">
@@ -9108,7 +9109,7 @@
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
     </row>
-    <row r="21" spans="1:11" ht="18.75">
+    <row r="21" spans="1:11" ht="18">
       <c r="A21" s="4"/>
       <c r="B21" s="9"/>
       <c r="C21" s="10" t="s">
@@ -9131,7 +9132,7 @@
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
     </row>
-    <row r="22" spans="1:11" ht="18.75">
+    <row r="22" spans="1:11" ht="18">
       <c r="A22" s="4"/>
       <c r="B22" s="8"/>
       <c r="C22" s="10" t="s">
@@ -9390,7 +9391,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
@@ -9399,18 +9400,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.375" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="27.75" customWidth="1"/>
-    <col min="4" max="4" width="15.75" customWidth="1"/>
-    <col min="6" max="6" width="15.875" customWidth="1"/>
-    <col min="7" max="7" width="20.875" customWidth="1"/>
-    <col min="8" max="8" width="22.25" customWidth="1"/>
-    <col min="9" max="10" width="17.375" customWidth="1"/>
-    <col min="11" max="11" width="24.125" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" customWidth="1"/>
+    <col min="8" max="8" width="22.28515625" customWidth="1"/>
+    <col min="9" max="10" width="17.42578125" customWidth="1"/>
+    <col min="11" max="11" width="24.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="19.5">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -9748,7 +9749,7 @@
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
     </row>
-    <row r="15" spans="1:11" ht="18.75">
+    <row r="15" spans="1:11" ht="18">
       <c r="A15" s="4"/>
       <c r="B15" s="8"/>
       <c r="C15" s="11" t="s">
@@ -9839,7 +9840,7 @@
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
     </row>
-    <row r="19" spans="1:11" ht="18.75">
+    <row r="19" spans="1:11" ht="18">
       <c r="A19" s="4"/>
       <c r="B19" s="8"/>
       <c r="C19" s="6" t="s">
@@ -9862,7 +9863,7 @@
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
     </row>
-    <row r="20" spans="1:11" ht="18.75">
+    <row r="20" spans="1:11" ht="18">
       <c r="A20" s="4"/>
       <c r="B20" s="9"/>
       <c r="C20" s="10" t="s">
@@ -9884,7 +9885,7 @@
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
     </row>
-    <row r="21" spans="1:11" ht="18.75">
+    <row r="21" spans="1:11" ht="18">
       <c r="A21" s="4"/>
       <c r="B21" s="9"/>
       <c r="C21" s="10" t="s">
@@ -9907,7 +9908,7 @@
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
     </row>
-    <row r="22" spans="1:11" ht="18.75">
+    <row r="22" spans="1:11" ht="18">
       <c r="A22" s="4"/>
       <c r="B22" s="8"/>
       <c r="C22" s="10" t="s">
@@ -10166,7 +10167,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
@@ -10175,19 +10176,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.25" customWidth="1"/>
-    <col min="2" max="2" width="22.25" customWidth="1"/>
-    <col min="3" max="3" width="25.125" customWidth="1"/>
-    <col min="4" max="4" width="12.75" customWidth="1"/>
-    <col min="6" max="6" width="12.375" customWidth="1"/>
-    <col min="7" max="7" width="23.125" customWidth="1"/>
-    <col min="8" max="8" width="18.625" customWidth="1"/>
-    <col min="9" max="9" width="15.625" customWidth="1"/>
-    <col min="10" max="10" width="18.625" customWidth="1"/>
-    <col min="11" max="11" width="16.75" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+    <col min="7" max="7" width="23.140625" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" customWidth="1"/>
+    <col min="10" max="10" width="18.5703125" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="19.5">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -10525,7 +10526,7 @@
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
     </row>
-    <row r="15" spans="1:11" ht="18.75">
+    <row r="15" spans="1:11" ht="18">
       <c r="A15" s="4"/>
       <c r="B15" s="8"/>
       <c r="C15" s="11" t="s">
@@ -10616,7 +10617,7 @@
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
     </row>
-    <row r="19" spans="1:11" ht="18.75">
+    <row r="19" spans="1:11" ht="18">
       <c r="A19" s="4"/>
       <c r="B19" s="8"/>
       <c r="C19" s="6" t="s">
@@ -10639,7 +10640,7 @@
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
     </row>
-    <row r="20" spans="1:11" ht="18.75">
+    <row r="20" spans="1:11" ht="18">
       <c r="A20" s="4"/>
       <c r="B20" s="9"/>
       <c r="C20" s="10" t="s">
@@ -10661,7 +10662,7 @@
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
     </row>
-    <row r="21" spans="1:11" ht="18.75">
+    <row r="21" spans="1:11" ht="18">
       <c r="A21" s="4"/>
       <c r="B21" s="9"/>
       <c r="C21" s="10" t="s">
@@ -10684,7 +10685,7 @@
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
     </row>
-    <row r="22" spans="1:11" ht="18.75">
+    <row r="22" spans="1:11" ht="18">
       <c r="A22" s="4"/>
       <c r="B22" s="8"/>
       <c r="C22" s="10" t="s">
@@ -10943,7 +10944,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
@@ -10952,20 +10953,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.125" customWidth="1"/>
-    <col min="2" max="2" width="19.75" customWidth="1"/>
+    <col min="1" max="1" width="21.140625" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
-    <col min="4" max="4" width="15.25" customWidth="1"/>
-    <col min="5" max="5" width="13.25" customWidth="1"/>
-    <col min="6" max="6" width="14.75" customWidth="1"/>
-    <col min="7" max="7" width="22.75" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="22.7109375" customWidth="1"/>
     <col min="8" max="8" width="20" customWidth="1"/>
-    <col min="9" max="9" width="24.75" customWidth="1"/>
-    <col min="10" max="10" width="18.75" customWidth="1"/>
-    <col min="11" max="11" width="14.125" customWidth="1"/>
+    <col min="9" max="9" width="24.7109375" customWidth="1"/>
+    <col min="10" max="10" width="18.7109375" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="19.5">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -11303,7 +11304,7 @@
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
     </row>
-    <row r="15" spans="1:11" ht="18.75">
+    <row r="15" spans="1:11" ht="18">
       <c r="A15" s="4"/>
       <c r="B15" s="8"/>
       <c r="C15" s="11" t="s">
@@ -11394,7 +11395,7 @@
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
     </row>
-    <row r="19" spans="1:11" ht="18.75">
+    <row r="19" spans="1:11" ht="18">
       <c r="A19" s="4"/>
       <c r="B19" s="8"/>
       <c r="C19" s="6" t="s">
@@ -11417,7 +11418,7 @@
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
     </row>
-    <row r="20" spans="1:11" ht="18.75">
+    <row r="20" spans="1:11" ht="18">
       <c r="A20" s="4"/>
       <c r="B20" s="9"/>
       <c r="C20" s="10" t="s">
@@ -11439,7 +11440,7 @@
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
     </row>
-    <row r="21" spans="1:11" ht="18.75">
+    <row r="21" spans="1:11" ht="18">
       <c r="A21" s="4"/>
       <c r="B21" s="9"/>
       <c r="C21" s="10" t="s">
@@ -11462,7 +11463,7 @@
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
     </row>
-    <row r="22" spans="1:11" ht="18.75">
+    <row r="22" spans="1:11" ht="18">
       <c r="A22" s="4"/>
       <c r="B22" s="8"/>
       <c r="C22" s="10" t="s">
@@ -11721,7 +11722,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
@@ -11731,19 +11732,19 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="19.25" customWidth="1"/>
-    <col min="3" max="3" width="27.75" customWidth="1"/>
-    <col min="4" max="4" width="13.625" customWidth="1"/>
-    <col min="5" max="5" width="10.875" customWidth="1"/>
-    <col min="6" max="6" width="13.625" customWidth="1"/>
-    <col min="7" max="7" width="22.375" customWidth="1"/>
-    <col min="8" max="8" width="18.625" customWidth="1"/>
-    <col min="9" max="9" width="17.125" customWidth="1"/>
-    <col min="10" max="10" width="16.375" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" customWidth="1"/>
+    <col min="9" max="9" width="17.140625" customWidth="1"/>
+    <col min="10" max="10" width="16.42578125" customWidth="1"/>
     <col min="11" max="11" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="19.5">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -12081,7 +12082,7 @@
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
     </row>
-    <row r="15" spans="1:11" ht="18.75">
+    <row r="15" spans="1:11" ht="18">
       <c r="A15" s="4"/>
       <c r="B15" s="8"/>
       <c r="C15" s="11" t="s">
@@ -12172,7 +12173,7 @@
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
     </row>
-    <row r="19" spans="1:11" ht="18.75">
+    <row r="19" spans="1:11" ht="18">
       <c r="A19" s="4"/>
       <c r="B19" s="8"/>
       <c r="C19" s="6" t="s">
@@ -12195,7 +12196,7 @@
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
     </row>
-    <row r="20" spans="1:11" ht="18.75">
+    <row r="20" spans="1:11" ht="18">
       <c r="A20" s="4"/>
       <c r="B20" s="9"/>
       <c r="C20" s="10" t="s">
@@ -12217,7 +12218,7 @@
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
     </row>
-    <row r="21" spans="1:11" ht="18.75">
+    <row r="21" spans="1:11" ht="18">
       <c r="A21" s="4"/>
       <c r="B21" s="9"/>
       <c r="C21" s="10" t="s">
@@ -12240,7 +12241,7 @@
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
     </row>
-    <row r="22" spans="1:11" ht="18.75">
+    <row r="22" spans="1:11" ht="18">
       <c r="A22" s="4"/>
       <c r="B22" s="8"/>
       <c r="C22" s="10" t="s">
@@ -12499,29 +12500,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+    <sheetView zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
       <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.375" customWidth="1"/>
-    <col min="2" max="2" width="25.375" customWidth="1"/>
-    <col min="3" max="3" width="31.625" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" customWidth="1"/>
+    <col min="3" max="3" width="31.5703125" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="12.25" customWidth="1"/>
-    <col min="6" max="6" width="23.25" customWidth="1"/>
-    <col min="7" max="7" width="25.25" customWidth="1"/>
-    <col min="8" max="8" width="22.375" customWidth="1"/>
-    <col min="9" max="9" width="25.625" customWidth="1"/>
-    <col min="10" max="10" width="31.875" customWidth="1"/>
-    <col min="11" max="11" width="25.125" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" customWidth="1"/>
+    <col min="7" max="7" width="25.28515625" customWidth="1"/>
+    <col min="8" max="8" width="22.42578125" customWidth="1"/>
+    <col min="9" max="9" width="25.5703125" customWidth="1"/>
+    <col min="10" max="10" width="31.85546875" customWidth="1"/>
+    <col min="11" max="11" width="25.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="19.5">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -12859,7 +12860,7 @@
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
     </row>
-    <row r="15" spans="1:11" ht="18.75">
+    <row r="15" spans="1:11" ht="18">
       <c r="A15" s="4"/>
       <c r="B15" s="8"/>
       <c r="C15" s="11" t="s">
@@ -12950,7 +12951,7 @@
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
     </row>
-    <row r="19" spans="1:11" ht="18.75">
+    <row r="19" spans="1:11" ht="18">
       <c r="A19" s="4"/>
       <c r="B19" s="8"/>
       <c r="C19" s="6" t="s">
@@ -12973,7 +12974,7 @@
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
     </row>
-    <row r="20" spans="1:11" ht="18.75">
+    <row r="20" spans="1:11" ht="18">
       <c r="A20" s="4"/>
       <c r="B20" s="9"/>
       <c r="C20" s="10" t="s">
@@ -12995,7 +12996,7 @@
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
     </row>
-    <row r="21" spans="1:11" ht="18.75">
+    <row r="21" spans="1:11" ht="18">
       <c r="A21" s="4"/>
       <c r="B21" s="9"/>
       <c r="C21" s="10" t="s">
@@ -13018,7 +13019,7 @@
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
     </row>
-    <row r="22" spans="1:11" ht="18.75">
+    <row r="22" spans="1:11" ht="18">
       <c r="A22" s="4"/>
       <c r="B22" s="8"/>
       <c r="C22" s="10" t="s">
@@ -13277,7 +13278,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
@@ -13286,20 +13287,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.875" customWidth="1"/>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="26.375" customWidth="1"/>
-    <col min="4" max="4" width="18.625" customWidth="1"/>
-    <col min="5" max="5" width="15.25" customWidth="1"/>
-    <col min="6" max="6" width="19.625" customWidth="1"/>
-    <col min="7" max="7" width="22.875" customWidth="1"/>
-    <col min="8" max="8" width="23.625" customWidth="1"/>
-    <col min="9" max="9" width="20.625" customWidth="1"/>
-    <col min="10" max="10" width="15.125" customWidth="1"/>
-    <col min="11" max="11" width="15.375" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" customWidth="1"/>
+    <col min="8" max="8" width="23.5703125" customWidth="1"/>
+    <col min="9" max="9" width="20.5703125" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="19.5">
+    <row r="1" spans="1:11">
       <c r="A1" s="19" t="s">
         <v>1</v>
       </c>
@@ -13637,7 +13638,7 @@
       <c r="J14" s="4"/>
       <c r="K14" s="25"/>
     </row>
-    <row r="15" spans="1:11" ht="18.75">
+    <row r="15" spans="1:11" ht="18">
       <c r="A15" s="24"/>
       <c r="B15" s="34"/>
       <c r="C15" s="39" t="s">
@@ -13729,7 +13730,7 @@
       <c r="J18" s="4"/>
       <c r="K18" s="25"/>
     </row>
-    <row r="19" spans="1:11" ht="18.75">
+    <row r="19" spans="1:11" ht="18">
       <c r="A19" s="24"/>
       <c r="B19" s="34"/>
       <c r="C19" s="39" t="s">
@@ -13752,7 +13753,7 @@
       <c r="J19" s="4"/>
       <c r="K19" s="25"/>
     </row>
-    <row r="20" spans="1:11" ht="19.5" thickBot="1">
+    <row r="20" spans="1:11" ht="18.75" thickBot="1">
       <c r="A20" s="26"/>
       <c r="B20" s="41"/>
       <c r="C20" s="40" t="s">
@@ -13775,7 +13776,7 @@
       <c r="J20" s="27"/>
       <c r="K20" s="28"/>
     </row>
-    <row r="21" spans="1:11" ht="18.75">
+    <row r="21" spans="1:11" ht="18">
       <c r="A21" s="29"/>
       <c r="B21" s="30"/>
       <c r="C21" s="15"/>
@@ -13788,7 +13789,7 @@
       <c r="J21" s="29"/>
       <c r="K21" s="29"/>
     </row>
-    <row r="22" spans="1:11" ht="18.75">
+    <row r="22" spans="1:11" ht="18">
       <c r="A22" s="29"/>
       <c r="B22" s="30"/>
       <c r="C22" s="29"/>
@@ -14041,7 +14042,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
@@ -14050,19 +14051,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.75" customWidth="1"/>
-    <col min="2" max="2" width="23.75" customWidth="1"/>
-    <col min="3" max="3" width="18.625" customWidth="1"/>
-    <col min="4" max="4" width="18.25" customWidth="1"/>
-    <col min="5" max="6" width="25.625" customWidth="1"/>
-    <col min="7" max="7" width="26.375" customWidth="1"/>
-    <col min="8" max="8" width="23.125" customWidth="1"/>
-    <col min="9" max="9" width="19.625" customWidth="1"/>
-    <col min="10" max="10" width="24.625" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="6" width="25.5703125" customWidth="1"/>
+    <col min="7" max="7" width="26.42578125" customWidth="1"/>
+    <col min="8" max="8" width="23.140625" customWidth="1"/>
+    <col min="9" max="9" width="19.5703125" customWidth="1"/>
+    <col min="10" max="10" width="24.5703125" customWidth="1"/>
     <col min="11" max="11" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="19.5">
+    <row r="1" spans="1:11">
       <c r="A1" s="19" t="s">
         <v>1</v>
       </c>
@@ -14400,7 +14401,7 @@
       <c r="J14" s="4"/>
       <c r="K14" s="25"/>
     </row>
-    <row r="15" spans="1:11" ht="18.75">
+    <row r="15" spans="1:11" ht="18">
       <c r="A15" s="24"/>
       <c r="B15" s="34"/>
       <c r="C15" s="39" t="s">
@@ -14492,7 +14493,7 @@
       <c r="J18" s="4"/>
       <c r="K18" s="25"/>
     </row>
-    <row r="19" spans="1:11" ht="18.75">
+    <row r="19" spans="1:11" ht="18">
       <c r="A19" s="24"/>
       <c r="B19" s="34"/>
       <c r="C19" s="39" t="s">
@@ -14515,7 +14516,7 @@
       <c r="J19" s="4"/>
       <c r="K19" s="25"/>
     </row>
-    <row r="20" spans="1:11" ht="19.5" thickBot="1">
+    <row r="20" spans="1:11" ht="18.75" thickBot="1">
       <c r="A20" s="26"/>
       <c r="B20" s="41"/>
       <c r="C20" s="40" t="s">
@@ -14765,29 +14766,29 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="18.75" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="16.125" customWidth="1"/>
-    <col min="5" max="5" width="15.125" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
     <col min="7" max="7" width="20" customWidth="1"/>
-    <col min="8" max="8" width="21.875" customWidth="1"/>
-    <col min="9" max="9" width="15.375" customWidth="1"/>
-    <col min="10" max="10" width="17.875" customWidth="1"/>
-    <col min="11" max="11" width="15.75" customWidth="1"/>
+    <col min="8" max="8" width="21.85546875" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" customWidth="1"/>
+    <col min="10" max="10" width="17.85546875" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="19.5">
+    <row r="1" spans="1:11">
       <c r="A1" s="19" t="s">
         <v>1</v>
       </c>
@@ -15125,7 +15126,7 @@
       <c r="J14" s="4"/>
       <c r="K14" s="25"/>
     </row>
-    <row r="15" spans="1:11" ht="18.75">
+    <row r="15" spans="1:11" ht="18">
       <c r="A15" s="24"/>
       <c r="B15" s="34"/>
       <c r="C15" s="39" t="s">
@@ -15217,7 +15218,7 @@
       <c r="J18" s="4"/>
       <c r="K18" s="25"/>
     </row>
-    <row r="19" spans="1:11" ht="18.75">
+    <row r="19" spans="1:11" ht="18">
       <c r="A19" s="24"/>
       <c r="B19" s="34"/>
       <c r="C19" s="39" t="s">
@@ -15240,7 +15241,7 @@
       <c r="J19" s="4"/>
       <c r="K19" s="25"/>
     </row>
-    <row r="20" spans="1:11" ht="19.5" thickBot="1">
+    <row r="20" spans="1:11" ht="18.75" thickBot="1">
       <c r="A20" s="26"/>
       <c r="B20" s="41"/>
       <c r="C20" s="40" t="s">
@@ -15269,7 +15270,7 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15278,20 +15279,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.375" customWidth="1"/>
-    <col min="2" max="2" width="18.625" customWidth="1"/>
-    <col min="3" max="3" width="19.125" customWidth="1"/>
-    <col min="4" max="4" width="11.875" customWidth="1"/>
-    <col min="5" max="5" width="13.625" customWidth="1"/>
-    <col min="6" max="6" width="15.875" customWidth="1"/>
-    <col min="7" max="7" width="18.875" customWidth="1"/>
-    <col min="8" max="8" width="29.75" customWidth="1"/>
-    <col min="9" max="9" width="19.875" customWidth="1"/>
-    <col min="10" max="10" width="14.25" customWidth="1"/>
-    <col min="11" max="11" width="14.125" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" customWidth="1"/>
+    <col min="8" max="8" width="29.7109375" customWidth="1"/>
+    <col min="9" max="9" width="19.85546875" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="19.5">
+    <row r="1" spans="1:11">
       <c r="A1" s="19" t="s">
         <v>1</v>
       </c>
@@ -15629,7 +15630,7 @@
       <c r="J14" s="4"/>
       <c r="K14" s="25"/>
     </row>
-    <row r="15" spans="1:11" ht="18.75">
+    <row r="15" spans="1:11" ht="18">
       <c r="A15" s="24"/>
       <c r="B15" s="34"/>
       <c r="C15" s="39" t="s">
@@ -15721,7 +15722,7 @@
       <c r="J18" s="4"/>
       <c r="K18" s="25"/>
     </row>
-    <row r="19" spans="1:11" ht="18.75">
+    <row r="19" spans="1:11" ht="18">
       <c r="A19" s="24"/>
       <c r="B19" s="34"/>
       <c r="C19" s="39" t="s">
@@ -15744,7 +15745,7 @@
       <c r="J19" s="4"/>
       <c r="K19" s="25"/>
     </row>
-    <row r="20" spans="1:11" ht="19.5" thickBot="1">
+    <row r="20" spans="1:11" ht="18.75" thickBot="1">
       <c r="A20" s="26"/>
       <c r="B20" s="41"/>
       <c r="C20" s="40" t="s">
@@ -15773,7 +15774,7 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
@@ -15783,19 +15784,19 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="17.375" customWidth="1"/>
-    <col min="3" max="3" width="23.625" customWidth="1"/>
-    <col min="4" max="4" width="15.875" customWidth="1"/>
-    <col min="5" max="5" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="21.75" customWidth="1"/>
-    <col min="8" max="8" width="23.25" customWidth="1"/>
-    <col min="9" max="9" width="19.625" customWidth="1"/>
-    <col min="10" max="10" width="21.25" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" customWidth="1"/>
+    <col min="8" max="8" width="23.28515625" customWidth="1"/>
+    <col min="9" max="9" width="19.5703125" customWidth="1"/>
+    <col min="10" max="10" width="21.28515625" customWidth="1"/>
     <col min="11" max="11" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="19.5">
+    <row r="1" spans="1:11">
       <c r="A1" s="19" t="s">
         <v>1</v>
       </c>
@@ -16494,7 +16495,7 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -16503,20 +16504,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.875" customWidth="1"/>
-    <col min="2" max="2" width="19.875" customWidth="1"/>
-    <col min="3" max="3" width="20.625" customWidth="1"/>
-    <col min="4" max="4" width="18.75" customWidth="1"/>
-    <col min="5" max="5" width="20.625" customWidth="1"/>
-    <col min="6" max="6" width="16.25" customWidth="1"/>
-    <col min="7" max="7" width="22.75" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" customWidth="1"/>
+    <col min="7" max="7" width="22.7109375" customWidth="1"/>
     <col min="8" max="8" width="24" customWidth="1"/>
-    <col min="9" max="9" width="12.375" customWidth="1"/>
-    <col min="10" max="10" width="13.125" customWidth="1"/>
-    <col min="11" max="11" width="10.75" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="19.5">
+    <row r="1" spans="1:11">
       <c r="A1" s="19" t="s">
         <v>1</v>
       </c>
@@ -17018,7 +17019,7 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17027,20 +17028,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.75" customWidth="1"/>
-    <col min="2" max="2" width="13.125" customWidth="1"/>
-    <col min="3" max="3" width="19.25" customWidth="1"/>
-    <col min="4" max="4" width="14.375" customWidth="1"/>
-    <col min="5" max="5" width="15.375" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="25.375" customWidth="1"/>
-    <col min="9" max="9" width="12.125" customWidth="1"/>
-    <col min="10" max="10" width="12.25" customWidth="1"/>
+    <col min="8" max="8" width="25.42578125" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" customWidth="1"/>
     <col min="11" max="11" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="19.5">
+    <row r="1" spans="1:11">
       <c r="A1" s="19" t="s">
         <v>1</v>
       </c>
@@ -17538,7 +17539,7 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17547,20 +17548,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.125" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="12.625" customWidth="1"/>
-    <col min="4" max="4" width="12.75" customWidth="1"/>
-    <col min="5" max="5" width="12.625" customWidth="1"/>
-    <col min="6" max="6" width="14.875" customWidth="1"/>
-    <col min="7" max="7" width="17.875" customWidth="1"/>
-    <col min="8" max="8" width="24.375" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" customWidth="1"/>
+    <col min="8" max="8" width="24.42578125" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="11.875" customWidth="1"/>
-    <col min="11" max="11" width="14.375" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="19.5">
+    <row r="1" spans="1:11">
       <c r="A1" s="19" t="s">
         <v>1</v>
       </c>
@@ -18058,7 +18059,7 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -18068,16 +18069,16 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="22.75" customWidth="1"/>
-    <col min="3" max="3" width="23.375" customWidth="1"/>
-    <col min="4" max="4" width="13.875" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="18.875" customWidth="1"/>
-    <col min="7" max="7" width="23.625" customWidth="1"/>
-    <col min="8" max="8" width="29.25" customWidth="1"/>
-    <col min="9" max="9" width="16.25" customWidth="1"/>
-    <col min="10" max="10" width="15.375" customWidth="1"/>
-    <col min="11" max="11" width="14.125" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" customWidth="1"/>
+    <col min="8" max="8" width="29.28515625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75">
@@ -18516,7 +18517,7 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -18525,16 +18526,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.875" customWidth="1"/>
-    <col min="2" max="2" width="20.25" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
     <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="4" max="4" width="14.25" customWidth="1"/>
-    <col min="5" max="5" width="15.625" customWidth="1"/>
-    <col min="6" max="6" width="15.125" customWidth="1"/>
-    <col min="7" max="7" width="22.25" customWidth="1"/>
-    <col min="8" max="8" width="28.25" customWidth="1"/>
-    <col min="9" max="9" width="16.625" customWidth="1"/>
-    <col min="10" max="10" width="11.625" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" customWidth="1"/>
+    <col min="8" max="8" width="28.28515625" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" customWidth="1"/>
     <col min="11" max="11" width="18" customWidth="1"/>
   </cols>
   <sheetData>
@@ -19000,29 +19001,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+    <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
       <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.75" customWidth="1"/>
-    <col min="2" max="2" width="16.75" customWidth="1"/>
-    <col min="3" max="3" width="23.75" customWidth="1"/>
-    <col min="4" max="4" width="18.75" customWidth="1"/>
-    <col min="5" max="5" width="14.75" customWidth="1"/>
-    <col min="6" max="6" width="15.75" customWidth="1"/>
-    <col min="7" max="7" width="22.75" customWidth="1"/>
-    <col min="8" max="8" width="22.875" customWidth="1"/>
-    <col min="9" max="9" width="24.875" customWidth="1"/>
-    <col min="10" max="10" width="24.125" customWidth="1"/>
-    <col min="11" max="11" width="23.625" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="22.7109375" customWidth="1"/>
+    <col min="8" max="8" width="22.85546875" customWidth="1"/>
+    <col min="9" max="9" width="24.85546875" customWidth="1"/>
+    <col min="10" max="10" width="24.140625" customWidth="1"/>
+    <col min="11" max="11" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="19.5">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -19360,7 +19361,7 @@
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
     </row>
-    <row r="15" spans="1:11" ht="18.75">
+    <row r="15" spans="1:11" ht="18">
       <c r="A15" s="4"/>
       <c r="B15" s="8"/>
       <c r="C15" s="11" t="s">
@@ -19451,7 +19452,7 @@
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
     </row>
-    <row r="19" spans="1:11" ht="18.75">
+    <row r="19" spans="1:11" ht="18">
       <c r="A19" s="4"/>
       <c r="B19" s="8"/>
       <c r="C19" s="6" t="s">
@@ -19474,7 +19475,7 @@
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
     </row>
-    <row r="20" spans="1:11" ht="18.75">
+    <row r="20" spans="1:11" ht="18">
       <c r="A20" s="4"/>
       <c r="B20" s="9"/>
       <c r="C20" s="10" t="s">
@@ -19496,7 +19497,7 @@
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
     </row>
-    <row r="21" spans="1:11" ht="18.75">
+    <row r="21" spans="1:11" ht="18">
       <c r="A21" s="4"/>
       <c r="B21" s="9"/>
       <c r="C21" s="10" t="s">
@@ -19519,7 +19520,7 @@
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
     </row>
-    <row r="22" spans="1:11" ht="18.75">
+    <row r="22" spans="1:11" ht="18">
       <c r="A22" s="4"/>
       <c r="B22" s="8"/>
       <c r="C22" s="10" t="s">
@@ -19778,7 +19779,7 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -19787,15 +19788,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.75" customWidth="1"/>
-    <col min="2" max="2" width="20.75" customWidth="1"/>
-    <col min="3" max="3" width="23.75" customWidth="1"/>
-    <col min="4" max="4" width="12.875" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="7" max="7" width="22.375" customWidth="1"/>
-    <col min="8" max="8" width="24.125" customWidth="1"/>
-    <col min="9" max="10" width="18.125" customWidth="1"/>
-    <col min="11" max="11" width="14.875" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" customWidth="1"/>
+    <col min="8" max="8" width="24.140625" customWidth="1"/>
+    <col min="9" max="10" width="18.140625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75">
@@ -20205,7 +20206,7 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -20214,15 +20215,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="14.125" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
     <col min="3" max="3" width="31" customWidth="1"/>
-    <col min="4" max="4" width="15.375" customWidth="1"/>
-    <col min="5" max="5" width="16.25" customWidth="1"/>
-    <col min="6" max="6" width="14.75" customWidth="1"/>
-    <col min="7" max="8" width="24.875" customWidth="1"/>
-    <col min="9" max="9" width="16.875" customWidth="1"/>
-    <col min="10" max="10" width="14.75" customWidth="1"/>
-    <col min="11" max="11" width="17.25" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="7" max="8" width="24.85546875" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75">
@@ -20567,7 +20568,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
@@ -20576,20 +20577,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.875" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="4" max="4" width="15.75" customWidth="1"/>
-    <col min="5" max="5" width="14.125" customWidth="1"/>
-    <col min="6" max="6" width="16.125" customWidth="1"/>
-    <col min="7" max="7" width="21.75" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="20.75" customWidth="1"/>
-    <col min="10" max="10" width="18.75" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" customWidth="1"/>
+    <col min="10" max="10" width="18.7109375" customWidth="1"/>
     <col min="11" max="11" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="19.5">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -20927,7 +20928,7 @@
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
     </row>
-    <row r="15" spans="1:11" ht="18.75">
+    <row r="15" spans="1:11" ht="18">
       <c r="A15" s="4"/>
       <c r="B15" s="8"/>
       <c r="C15" s="11" t="s">
@@ -21018,7 +21019,7 @@
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
     </row>
-    <row r="19" spans="1:11" ht="18.75">
+    <row r="19" spans="1:11" ht="18">
       <c r="A19" s="4"/>
       <c r="B19" s="8"/>
       <c r="C19" s="6" t="s">
@@ -21041,7 +21042,7 @@
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
     </row>
-    <row r="20" spans="1:11" ht="18.75">
+    <row r="20" spans="1:11" ht="18">
       <c r="A20" s="4"/>
       <c r="B20" s="9"/>
       <c r="C20" s="10" t="s">
@@ -21063,7 +21064,7 @@
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
     </row>
-    <row r="21" spans="1:11" ht="18.75">
+    <row r="21" spans="1:11" ht="18">
       <c r="A21" s="4"/>
       <c r="B21" s="9"/>
       <c r="C21" s="10" t="s">
@@ -21086,7 +21087,7 @@
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
     </row>
-    <row r="22" spans="1:11" ht="18.75">
+    <row r="22" spans="1:11" ht="18">
       <c r="A22" s="4"/>
       <c r="B22" s="8"/>
       <c r="C22" s="10" t="s">
@@ -21345,29 +21346,29 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.125" customWidth="1"/>
-    <col min="2" max="2" width="16.25" customWidth="1"/>
-    <col min="3" max="3" width="27.25" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="10.125" customWidth="1"/>
-    <col min="6" max="6" width="13.875" customWidth="1"/>
-    <col min="7" max="7" width="21.875" customWidth="1"/>
-    <col min="8" max="8" width="20.875" customWidth="1"/>
-    <col min="9" max="9" width="16.125" customWidth="1"/>
-    <col min="10" max="10" width="18.625" customWidth="1"/>
-    <col min="11" max="11" width="19.375" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" customWidth="1"/>
+    <col min="8" max="8" width="20.85546875" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" customWidth="1"/>
+    <col min="10" max="10" width="18.5703125" customWidth="1"/>
+    <col min="11" max="11" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="19.5">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -21705,7 +21706,7 @@
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
     </row>
-    <row r="15" spans="1:11" ht="18.75">
+    <row r="15" spans="1:11" ht="18">
       <c r="A15" s="4"/>
       <c r="B15" s="8"/>
       <c r="C15" s="11" t="s">
@@ -21796,7 +21797,7 @@
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
     </row>
-    <row r="19" spans="1:11" ht="18.75">
+    <row r="19" spans="1:11" ht="18">
       <c r="A19" s="4"/>
       <c r="B19" s="8"/>
       <c r="C19" s="6" t="s">
@@ -21819,7 +21820,7 @@
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
     </row>
-    <row r="20" spans="1:11" ht="18.75">
+    <row r="20" spans="1:11" ht="18">
       <c r="A20" s="4"/>
       <c r="B20" s="9"/>
       <c r="C20" s="10" t="s">
@@ -21841,7 +21842,7 @@
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
     </row>
-    <row r="21" spans="1:11" ht="18.75">
+    <row r="21" spans="1:11" ht="18">
       <c r="A21" s="4"/>
       <c r="B21" s="9"/>
       <c r="C21" s="10" t="s">
@@ -21864,7 +21865,7 @@
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
     </row>
-    <row r="22" spans="1:11" ht="18.75">
+    <row r="22" spans="1:11" ht="18">
       <c r="A22" s="4"/>
       <c r="B22" s="8"/>
       <c r="C22" s="10" t="s">
@@ -22123,29 +22124,29 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.625" customWidth="1"/>
-    <col min="2" max="2" width="18.25" customWidth="1"/>
-    <col min="3" max="3" width="28.75" customWidth="1"/>
-    <col min="4" max="4" width="12.25" customWidth="1"/>
-    <col min="5" max="5" width="12.375" customWidth="1"/>
-    <col min="6" max="6" width="13.625" customWidth="1"/>
-    <col min="7" max="7" width="19.875" customWidth="1"/>
-    <col min="8" max="8" width="24.25" customWidth="1"/>
-    <col min="9" max="9" width="19.125" customWidth="1"/>
-    <col min="10" max="10" width="18.75" customWidth="1"/>
-    <col min="11" max="11" width="19.375" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" customWidth="1"/>
+    <col min="8" max="8" width="24.28515625" customWidth="1"/>
+    <col min="9" max="9" width="19.140625" customWidth="1"/>
+    <col min="10" max="10" width="18.7109375" customWidth="1"/>
+    <col min="11" max="11" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="19.5">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -22483,7 +22484,7 @@
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
     </row>
-    <row r="15" spans="1:11" ht="18.75">
+    <row r="15" spans="1:11" ht="18">
       <c r="A15" s="4"/>
       <c r="B15" s="8"/>
       <c r="C15" s="11" t="s">
@@ -22574,7 +22575,7 @@
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
     </row>
-    <row r="19" spans="1:11" ht="18.75">
+    <row r="19" spans="1:11" ht="18">
       <c r="A19" s="4"/>
       <c r="B19" s="8"/>
       <c r="C19" s="6" t="s">
@@ -22597,7 +22598,7 @@
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
     </row>
-    <row r="20" spans="1:11" ht="18.75">
+    <row r="20" spans="1:11" ht="18">
       <c r="A20" s="4"/>
       <c r="B20" s="9"/>
       <c r="C20" s="10" t="s">
@@ -22619,7 +22620,7 @@
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
     </row>
-    <row r="21" spans="1:11" ht="18.75">
+    <row r="21" spans="1:11" ht="18">
       <c r="A21" s="4"/>
       <c r="B21" s="9"/>
       <c r="C21" s="10" t="s">
@@ -22642,7 +22643,7 @@
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
     </row>
-    <row r="22" spans="1:11" ht="18.75">
+    <row r="22" spans="1:11" ht="18">
       <c r="A22" s="4"/>
       <c r="B22" s="8"/>
       <c r="C22" s="10" t="s">
@@ -22901,29 +22902,29 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+    <sheetView zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
       <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.375" customWidth="1"/>
-    <col min="2" max="2" width="17.375" customWidth="1"/>
-    <col min="3" max="3" width="23.625" customWidth="1"/>
-    <col min="4" max="4" width="12.125" customWidth="1"/>
-    <col min="5" max="5" width="11.125" customWidth="1"/>
-    <col min="6" max="6" width="13.625" customWidth="1"/>
-    <col min="7" max="7" width="17.75" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="17.125" customWidth="1"/>
-    <col min="10" max="10" width="20.125" customWidth="1"/>
-    <col min="11" max="11" width="15.75" customWidth="1"/>
+    <col min="9" max="9" width="17.140625" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="19.5">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -23261,7 +23262,7 @@
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
     </row>
-    <row r="15" spans="1:11" ht="18.75">
+    <row r="15" spans="1:11" ht="18">
       <c r="A15" s="4"/>
       <c r="B15" s="8"/>
       <c r="C15" s="11" t="s">
@@ -23352,7 +23353,7 @@
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
     </row>
-    <row r="19" spans="1:11" ht="18.75">
+    <row r="19" spans="1:11" ht="18">
       <c r="A19" s="4"/>
       <c r="B19" s="8"/>
       <c r="C19" s="6" t="s">
@@ -23375,7 +23376,7 @@
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
     </row>
-    <row r="20" spans="1:11" ht="18.75">
+    <row r="20" spans="1:11" ht="18">
       <c r="A20" s="4"/>
       <c r="B20" s="9"/>
       <c r="C20" s="10" t="s">
@@ -23397,7 +23398,7 @@
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
     </row>
-    <row r="21" spans="1:11" ht="18.75">
+    <row r="21" spans="1:11" ht="18">
       <c r="A21" s="4"/>
       <c r="B21" s="9"/>
       <c r="C21" s="10" t="s">
@@ -23420,7 +23421,7 @@
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
     </row>
-    <row r="22" spans="1:11" ht="18.75">
+    <row r="22" spans="1:11" ht="18">
       <c r="A22" s="4"/>
       <c r="B22" s="8"/>
       <c r="C22" s="10" t="s">
@@ -23679,29 +23680,29 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+    <sheetView zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
       <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.25" customWidth="1"/>
-    <col min="2" max="2" width="16.875" customWidth="1"/>
-    <col min="3" max="3" width="23.875" customWidth="1"/>
-    <col min="4" max="4" width="11.125" customWidth="1"/>
-    <col min="5" max="5" width="11.375" customWidth="1"/>
-    <col min="6" max="6" width="14.875" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" customWidth="1"/>
     <col min="7" max="7" width="20" customWidth="1"/>
-    <col min="8" max="8" width="25.875" customWidth="1"/>
-    <col min="9" max="9" width="17.625" customWidth="1"/>
-    <col min="10" max="10" width="17.125" customWidth="1"/>
-    <col min="11" max="11" width="17.75" customWidth="1"/>
+    <col min="8" max="8" width="25.85546875" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" customWidth="1"/>
+    <col min="10" max="10" width="17.140625" customWidth="1"/>
+    <col min="11" max="11" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="19.5">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -24039,7 +24040,7 @@
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
     </row>
-    <row r="15" spans="1:11" ht="18.75">
+    <row r="15" spans="1:11" ht="18">
       <c r="A15" s="4"/>
       <c r="B15" s="8"/>
       <c r="C15" s="11" t="s">
@@ -24130,7 +24131,7 @@
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
     </row>
-    <row r="19" spans="1:11" ht="18.75">
+    <row r="19" spans="1:11" ht="18">
       <c r="A19" s="4"/>
       <c r="B19" s="8"/>
       <c r="C19" s="6" t="s">
@@ -24153,7 +24154,7 @@
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
     </row>
-    <row r="20" spans="1:11" ht="18.75">
+    <row r="20" spans="1:11" ht="18">
       <c r="A20" s="4"/>
       <c r="B20" s="9"/>
       <c r="C20" s="10" t="s">
@@ -24175,7 +24176,7 @@
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
     </row>
-    <row r="21" spans="1:11" ht="18.75">
+    <row r="21" spans="1:11" ht="18">
       <c r="A21" s="4"/>
       <c r="B21" s="9"/>
       <c r="C21" s="10" t="s">
@@ -24198,7 +24199,7 @@
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
     </row>
-    <row r="22" spans="1:11" ht="18.75">
+    <row r="22" spans="1:11" ht="18">
       <c r="A22" s="4"/>
       <c r="B22" s="8"/>
       <c r="C22" s="10" t="s">
@@ -24457,29 +24458,29 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+    <sheetView zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
       <selection activeCell="A32" sqref="A32:K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.75" customWidth="1"/>
-    <col min="2" max="2" width="16.25" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
-    <col min="4" max="4" width="10.75" customWidth="1"/>
-    <col min="5" max="5" width="11.375" customWidth="1"/>
-    <col min="6" max="6" width="13.625" customWidth="1"/>
-    <col min="7" max="7" width="19.125" customWidth="1"/>
-    <col min="8" max="8" width="24.875" customWidth="1"/>
-    <col min="9" max="9" width="15.625" customWidth="1"/>
-    <col min="10" max="10" width="17.875" customWidth="1"/>
-    <col min="11" max="11" width="17.25" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" customWidth="1"/>
+    <col min="8" max="8" width="24.85546875" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" customWidth="1"/>
+    <col min="10" max="10" width="17.85546875" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="19.5">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -24817,7 +24818,7 @@
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
     </row>
-    <row r="15" spans="1:11" ht="18.75">
+    <row r="15" spans="1:11" ht="18">
       <c r="A15" s="4"/>
       <c r="B15" s="8"/>
       <c r="C15" s="11" t="s">
@@ -24908,7 +24909,7 @@
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
     </row>
-    <row r="19" spans="1:11" ht="18.75">
+    <row r="19" spans="1:11" ht="18">
       <c r="A19" s="4"/>
       <c r="B19" s="8"/>
       <c r="C19" s="6" t="s">
@@ -24931,7 +24932,7 @@
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
     </row>
-    <row r="20" spans="1:11" ht="18.75">
+    <row r="20" spans="1:11" ht="18">
       <c r="A20" s="4"/>
       <c r="B20" s="9"/>
       <c r="C20" s="10" t="s">
@@ -24953,7 +24954,7 @@
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
     </row>
-    <row r="21" spans="1:11" ht="18.75">
+    <row r="21" spans="1:11" ht="18">
       <c r="A21" s="4"/>
       <c r="B21" s="9"/>
       <c r="C21" s="10" t="s">
@@ -24976,7 +24977,7 @@
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
     </row>
-    <row r="22" spans="1:11" ht="18.75">
+    <row r="22" spans="1:11" ht="18">
       <c r="A22" s="4"/>
       <c r="B22" s="8"/>
       <c r="C22" s="10" t="s">
